--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Itga1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Itga1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H2">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I2">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J2">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N2">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O2">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P2">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q2">
-        <v>2249.552494768499</v>
+        <v>1204.586305228843</v>
       </c>
       <c r="R2">
-        <v>20245.97245291649</v>
+        <v>10841.27674705958</v>
       </c>
       <c r="S2">
-        <v>0.2830081984808383</v>
+        <v>0.4233323412926295</v>
       </c>
       <c r="T2">
-        <v>0.3416209892354215</v>
+        <v>0.4548244421733143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H3">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I3">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J3">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P3">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q3">
-        <v>303.3830389034561</v>
+        <v>313.049593973616</v>
       </c>
       <c r="R3">
-        <v>2730.447350131104</v>
+        <v>2817.446345762544</v>
       </c>
       <c r="S3">
-        <v>0.03816754109512124</v>
+        <v>0.1100162080394742</v>
       </c>
       <c r="T3">
-        <v>0.0460722806462504</v>
+        <v>0.1182004197902475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H4">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I4">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J4">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N4">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O4">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P4">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q4">
-        <v>15.84202607763822</v>
+        <v>20.50667706527734</v>
       </c>
       <c r="R4">
-        <v>142.578234698744</v>
+        <v>184.560093587496</v>
       </c>
       <c r="S4">
-        <v>0.001993028956179235</v>
+        <v>0.007206739422897984</v>
       </c>
       <c r="T4">
-        <v>0.002405797878787913</v>
+        <v>0.007742855714494585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H5">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I5">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J5">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N5">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O5">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P5">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q5">
-        <v>2270.074139911681</v>
+        <v>227.608455002488</v>
       </c>
       <c r="R5">
-        <v>13620.44483947008</v>
+        <v>1365.650730014928</v>
       </c>
       <c r="S5">
-        <v>0.285589953667855</v>
+        <v>0.07998930399254074</v>
       </c>
       <c r="T5">
-        <v>0.2298249615180119</v>
+        <v>0.05729319027402238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.23889466666667</v>
+        <v>37.393558</v>
       </c>
       <c r="H6">
-        <v>108.716684</v>
+        <v>112.180674</v>
       </c>
       <c r="I6">
-        <v>0.6211538114277945</v>
+        <v>0.6214236533709717</v>
       </c>
       <c r="J6">
-        <v>0.6348862200079014</v>
+        <v>0.6390053627425325</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N6">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O6">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P6">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q6">
-        <v>98.52507469731466</v>
+        <v>2.501354810774667</v>
       </c>
       <c r="R6">
-        <v>886.7256722758319</v>
+        <v>22.512193296972</v>
       </c>
       <c r="S6">
-        <v>0.01239508922780063</v>
+        <v>0.0008790606234292657</v>
       </c>
       <c r="T6">
-        <v>0.01496219072942958</v>
+        <v>0.0009444547904535511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H7">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I7">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J7">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N7">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O7">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P7">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q7">
-        <v>1088.649778153191</v>
+        <v>564.9475506198968</v>
       </c>
       <c r="R7">
-        <v>9797.84800337872</v>
+        <v>5084.527955579071</v>
       </c>
       <c r="S7">
-        <v>0.1369591566359091</v>
+        <v>0.1985416638669343</v>
       </c>
       <c r="T7">
-        <v>0.1653242656077195</v>
+        <v>0.2133113695984283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H8">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I8">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J8">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.115256</v>
       </c>
       <c r="O8">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P8">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q8">
         <v>146.819369081528</v>
@@ -948,10 +948,10 @@
         <v>1321.374321733752</v>
       </c>
       <c r="S8">
-        <v>0.01847082263805208</v>
+        <v>0.05159728862149258</v>
       </c>
       <c r="T8">
-        <v>0.0222962470185492</v>
+        <v>0.055435660652026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,13 +977,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H9">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I9">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J9">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N9">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O9">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P9">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q9">
-        <v>7.666599563702444</v>
+        <v>9.617573210896444</v>
       </c>
       <c r="R9">
-        <v>68.999396073322</v>
+        <v>86.558158898068</v>
       </c>
       <c r="S9">
-        <v>0.0009645076236465841</v>
+        <v>0.00337994028925025</v>
       </c>
       <c r="T9">
-        <v>0.001164263262633224</v>
+        <v>0.003631377304987685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1039,13 +1039,13 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H10">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I10">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J10">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N10">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O10">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P10">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q10">
-        <v>1098.581035362978</v>
+        <v>106.7477179475373</v>
       </c>
       <c r="R10">
-        <v>6591.486212177867</v>
+        <v>640.4863076852239</v>
       </c>
       <c r="S10">
-        <v>0.1382085727833997</v>
+        <v>0.03751475603717016</v>
       </c>
       <c r="T10">
-        <v>0.1112216291695817</v>
+        <v>0.02687034326391379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,43 +1101,43 @@
         <v>17.53747233333333</v>
       </c>
       <c r="H11">
-        <v>52.612417</v>
+        <v>52.61241699999999</v>
       </c>
       <c r="I11">
-        <v>0.3006015465664726</v>
+        <v>0.2914459257466844</v>
       </c>
       <c r="J11">
-        <v>0.307247216578179</v>
+        <v>0.299691697429509</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N11">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O11">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P11">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q11">
-        <v>47.68028350580733</v>
+        <v>1.173128290969555</v>
       </c>
       <c r="R11">
-        <v>429.122551552266</v>
+        <v>10.558154618726</v>
       </c>
       <c r="S11">
-        <v>0.00599848688546511</v>
+        <v>0.0004122769318371227</v>
       </c>
       <c r="T11">
-        <v>0.007240811519695391</v>
+        <v>0.0004429466101530986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H12">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I12">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J12">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N12">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O12">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P12">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q12">
-        <v>26.53599013035056</v>
+        <v>8.893279047445333</v>
       </c>
       <c r="R12">
-        <v>238.823911173155</v>
+        <v>80.03951142700801</v>
       </c>
       <c r="S12">
-        <v>0.003338398538891914</v>
+        <v>0.003125398839901716</v>
       </c>
       <c r="T12">
-        <v>0.00402980202495992</v>
+        <v>0.003357900271892529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H13">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I13">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J13">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.115256</v>
       </c>
       <c r="O13">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P13">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q13">
-        <v>3.578742592040001</v>
+        <v>2.311197946392</v>
       </c>
       <c r="R13">
-        <v>32.20868332836</v>
+        <v>20.80078151752801</v>
       </c>
       <c r="S13">
-        <v>0.0004502288771456808</v>
+        <v>0.0008122330742013287</v>
       </c>
       <c r="T13">
-        <v>0.0005434741297901814</v>
+        <v>0.0008726558754294907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H14">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I14">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J14">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N14">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O14">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P14">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q14">
-        <v>0.1868744333011111</v>
+        <v>0.1513977044946667</v>
       </c>
       <c r="R14">
-        <v>1.68186989971</v>
+        <v>1.362579340452</v>
       </c>
       <c r="S14">
-        <v>2.351000780540471E-05</v>
+        <v>5.320627042815422E-05</v>
       </c>
       <c r="T14">
-        <v>2.837907935716084E-05</v>
+        <v>5.716433616603787E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H15">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I15">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J15">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N15">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O15">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P15">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q15">
-        <v>26.77806590953083</v>
+        <v>1.680398901356</v>
       </c>
       <c r="R15">
-        <v>160.668395457185</v>
+        <v>10.082393408136</v>
       </c>
       <c r="S15">
-        <v>0.003368853231690139</v>
+        <v>0.0005905489694916092</v>
       </c>
       <c r="T15">
-        <v>0.002711042718377537</v>
+        <v>0.0004229869843393783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4274783333333333</v>
+        <v>0.276071</v>
       </c>
       <c r="H16">
-        <v>1.282435</v>
+        <v>0.8282130000000001</v>
       </c>
       <c r="I16">
-        <v>0.007327204609721205</v>
+        <v>0.004587877126048758</v>
       </c>
       <c r="J16">
-        <v>0.007489193742846618</v>
+        <v>0.004717680235127497</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N16">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O16">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P16">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q16">
-        <v>1.162213558403333</v>
+        <v>0.01846712537933334</v>
       </c>
       <c r="R16">
-        <v>10.45992202563</v>
+        <v>0.166204128414</v>
       </c>
       <c r="S16">
-        <v>0.0001462139541880665</v>
+        <v>6.489972025950053E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001764957903618182</v>
+        <v>6.972767300060142E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H17">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I17">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J17">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N17">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O17">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P17">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q17">
-        <v>235.0006416114462</v>
+        <v>160.0029501101546</v>
       </c>
       <c r="R17">
-        <v>1410.003849668677</v>
+        <v>960.017700660928</v>
       </c>
       <c r="S17">
-        <v>0.029564594904526</v>
+        <v>0.05623044458486655</v>
       </c>
       <c r="T17">
-        <v>0.02379173986676929</v>
+        <v>0.0402756543686648</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H18">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I18">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J18">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.115256</v>
       </c>
       <c r="O18">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P18">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q18">
-        <v>31.69306293680401</v>
+        <v>41.581793142708</v>
       </c>
       <c r="R18">
-        <v>190.158377620824</v>
+        <v>249.490758856248</v>
       </c>
       <c r="S18">
-        <v>0.003987191526734195</v>
+        <v>0.01461324752725315</v>
       </c>
       <c r="T18">
-        <v>0.003208642767113455</v>
+        <v>0.010466894063466</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H19">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I19">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J19">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N19">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O19">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P19">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q19">
-        <v>1.654945284152334</v>
+        <v>2.723863631155333</v>
       </c>
       <c r="R19">
-        <v>9.929671704914002</v>
+        <v>16.343181786932</v>
       </c>
       <c r="S19">
-        <v>0.0002082027801269471</v>
+        <v>0.0009572577434538987</v>
       </c>
       <c r="T19">
-        <v>0.0001675485965667725</v>
+        <v>0.000685646046402653</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H20">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I20">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J20">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N20">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O20">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P20">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q20">
-        <v>237.1444456732698</v>
+        <v>30.232806161194</v>
       </c>
       <c r="R20">
-        <v>948.5777826930791</v>
+        <v>120.931224644776</v>
       </c>
       <c r="S20">
-        <v>0.02983429926876891</v>
+        <v>0.01062482991920872</v>
       </c>
       <c r="T20">
-        <v>0.01600585406524503</v>
+        <v>0.00507343166987357</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>2</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.785714500000001</v>
+        <v>4.9669165</v>
       </c>
       <c r="H21">
-        <v>7.571429000000001</v>
+        <v>9.933833</v>
       </c>
       <c r="I21">
-        <v>0.06488914775911858</v>
+        <v>0.08254254375629515</v>
       </c>
       <c r="J21">
-        <v>0.04421580718805042</v>
+        <v>0.05658525959283094</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N21">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O21">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P21">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q21">
-        <v>10.292471868307</v>
+        <v>0.3322502897956667</v>
       </c>
       <c r="R21">
-        <v>61.754831209842</v>
+        <v>1.993501738774</v>
       </c>
       <c r="S21">
-        <v>0.001294859278962518</v>
+        <v>0.0001167639815128346</v>
       </c>
       <c r="T21">
-        <v>0.001042021892355863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.351698</v>
-      </c>
-      <c r="H22">
-        <v>1.055094</v>
-      </c>
-      <c r="I22">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J22">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>62.07563766666667</v>
-      </c>
-      <c r="N22">
-        <v>186.226913</v>
-      </c>
-      <c r="O22">
-        <v>0.4556169394345516</v>
-      </c>
-      <c r="P22">
-        <v>0.53808222397892</v>
-      </c>
-      <c r="Q22">
-        <v>21.83187761609133</v>
-      </c>
-      <c r="R22">
-        <v>196.486898544822</v>
-      </c>
-      <c r="S22">
-        <v>0.002746590874386323</v>
-      </c>
-      <c r="T22">
-        <v>0.003315427244049845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.351698</v>
-      </c>
-      <c r="H23">
-        <v>1.055094</v>
-      </c>
-      <c r="I23">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J23">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.371752000000001</v>
-      </c>
-      <c r="N23">
-        <v>25.115256</v>
-      </c>
-      <c r="O23">
-        <v>0.06144619962548196</v>
-      </c>
-      <c r="P23">
-        <v>0.07256777544435759</v>
-      </c>
-      <c r="Q23">
-        <v>2.944328434896</v>
-      </c>
-      <c r="R23">
-        <v>26.498955914064</v>
-      </c>
-      <c r="S23">
-        <v>0.0003704154884287663</v>
-      </c>
-      <c r="T23">
-        <v>0.000447130882654358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.351698</v>
-      </c>
-      <c r="H24">
-        <v>1.055094</v>
-      </c>
-      <c r="I24">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J24">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.4371553333333333</v>
-      </c>
-      <c r="N24">
-        <v>1.311466</v>
-      </c>
-      <c r="O24">
-        <v>0.003208591687778628</v>
-      </c>
-      <c r="P24">
-        <v>0.003789337054374833</v>
-      </c>
-      <c r="Q24">
-        <v>0.1537466564226667</v>
-      </c>
-      <c r="R24">
-        <v>1.383719907804</v>
-      </c>
-      <c r="S24">
-        <v>1.93423200204577E-05</v>
-      </c>
-      <c r="T24">
-        <v>2.334823702976311E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.351698</v>
-      </c>
-      <c r="H25">
-        <v>1.055094</v>
-      </c>
-      <c r="I25">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J25">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>62.6419255</v>
-      </c>
-      <c r="N25">
-        <v>125.283851</v>
-      </c>
-      <c r="O25">
-        <v>0.4597733257265108</v>
-      </c>
-      <c r="P25">
-        <v>0.3619939357246589</v>
-      </c>
-      <c r="Q25">
-        <v>22.031039914499</v>
-      </c>
-      <c r="R25">
-        <v>132.186239486994</v>
-      </c>
-      <c r="S25">
-        <v>0.002771646774797066</v>
-      </c>
-      <c r="T25">
-        <v>0.002230448253442731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.351698</v>
-      </c>
-      <c r="H26">
-        <v>1.055094</v>
-      </c>
-      <c r="I26">
-        <v>0.006028289636893242</v>
-      </c>
-      <c r="J26">
-        <v>0.006161562483022539</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.718766</v>
-      </c>
-      <c r="N26">
-        <v>8.156298</v>
-      </c>
-      <c r="O26">
-        <v>0.01995494352567695</v>
-      </c>
-      <c r="P26">
-        <v>0.0235667277976885</v>
-      </c>
-      <c r="Q26">
-        <v>0.9561845646680001</v>
-      </c>
-      <c r="R26">
-        <v>8.605661082011999</v>
-      </c>
-      <c r="S26">
-        <v>0.0001202941792606282</v>
-      </c>
-      <c r="T26">
-        <v>0.0001452078658458418</v>
+        <v>8.363344442390827E-05</v>
       </c>
     </row>
   </sheetData>
